--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_properties_postprocessed_for_pyrdz1_to_pyrdz1.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_properties_postprocessed_for_pyrdz1_to_pyrdz1.xlsx
@@ -3826,7 +3826,7 @@
         <v>722.480853908772</v>
       </c>
       <c r="Y2">
-        <v>0.8320987908835648</v>
+        <v>0.8320987908835645</v>
       </c>
       <c r="Z2">
         <v>0.13315</v>
@@ -4221,7 +4221,7 @@
         <v>720.8970590326221</v>
       </c>
       <c r="Y3">
-        <v>0.8337869665741743</v>
+        <v>0.8337869665741744</v>
       </c>
       <c r="Z3">
         <v>0.13716</v>
@@ -4377,7 +4377,7 @@
         <v>3.024503232772713</v>
       </c>
       <c r="BZ3">
-        <v>9.360483030812377</v>
+        <v>9.360483030812379</v>
       </c>
       <c r="CA3">
         <v>6.399321866370697</v>
@@ -4901,7 +4901,7 @@
         <v>0.01017330517237955</v>
       </c>
       <c r="DQ4">
-        <v>0.02022521394149848</v>
+        <v>0.02022521394009322</v>
       </c>
       <c r="DR4">
         <v>0.003037520362615836</v>
@@ -5194,7 +5194,7 @@
         <v>3.085920212343944</v>
       </c>
       <c r="CI5">
-        <v>6.592371765167756</v>
+        <v>6.592371765167755</v>
       </c>
       <c r="CJ5">
         <v>5.887236968423968</v>
@@ -5290,7 +5290,7 @@
         <v>0.01463330029722582</v>
       </c>
       <c r="DO5">
-        <v>0.06811255916221085</v>
+        <v>0.06811255916262812</v>
       </c>
       <c r="DP5">
         <v>0.01024915171696886</v>
@@ -5329,7 +5329,7 @@
         <v>6.07722</v>
       </c>
       <c r="EB5">
-        <v>0.3849722222222223</v>
+        <v>0.3849722222222222</v>
       </c>
     </row>
     <row r="6" spans="1:132">
@@ -5652,13 +5652,13 @@
         <v>0.006073930589073196</v>
       </c>
       <c r="DO6">
-        <v>0.03175289330707056</v>
+        <v>0.03175289330707255</v>
       </c>
       <c r="DP6">
         <v>0.004779423364559804</v>
       </c>
       <c r="DQ6">
-        <v>0.01661526660771082</v>
+        <v>0.01661526660770093</v>
       </c>
       <c r="DR6">
         <v>0.002495671428167045</v>
@@ -5732,7 +5732,7 @@
         <v>1.125051638503861</v>
       </c>
       <c r="Y7">
-        <v>0.001052544172171813</v>
+        <v>0.001052544172171982</v>
       </c>
       <c r="Z7">
         <v>0.002299046621014079</v>
@@ -5888,7 +5888,7 @@
         <v>0.01869434953565169</v>
       </c>
       <c r="BZ7">
-        <v>0.03628653704845419</v>
+        <v>0.03628653704845426</v>
       </c>
       <c r="CA7">
         <v>0.03271338554483082</v>
@@ -5915,7 +5915,7 @@
         <v>0.0225143594349673</v>
       </c>
       <c r="CI7">
-        <v>0.003096586074344633</v>
+        <v>0.00309658607434458</v>
       </c>
       <c r="CJ7">
         <v>0.01272689478693912</v>
@@ -6011,13 +6011,13 @@
         <v>0.001068398377487883</v>
       </c>
       <c r="DO7">
-        <v>0.004554041526840419</v>
+        <v>0.004554041526861643</v>
       </c>
       <c r="DP7">
         <v>0.0006850420439420626</v>
       </c>
       <c r="DQ7">
-        <v>0.0007226766438806266</v>
+        <v>0.0007226766438147333</v>
       </c>
       <c r="DR7">
         <v>0.0001084021132904285</v>
@@ -6438,7 +6438,7 @@
         <v>727.6385000162412</v>
       </c>
       <c r="Y9">
-        <v>0.8337869665741743</v>
+        <v>0.8337869665741744</v>
       </c>
       <c r="Z9">
         <v>0.13716</v>
@@ -6621,7 +6621,7 @@
         <v>3.085920212343944</v>
       </c>
       <c r="CI9">
-        <v>6.592371765167756</v>
+        <v>6.592371765167755</v>
       </c>
       <c r="CJ9">
         <v>5.987261760584495</v>
@@ -6717,7 +6717,7 @@
         <v>0.01463330029722582</v>
       </c>
       <c r="DO9">
-        <v>0.06811255916221085</v>
+        <v>0.06811255916262812</v>
       </c>
       <c r="DP9">
         <v>0.01024915171696886</v>
@@ -6791,7 +6791,7 @@
         <v>6.7414409836191</v>
       </c>
       <c r="Y10">
-        <v>0.004941312827640321</v>
+        <v>0.004941312827640432</v>
       </c>
       <c r="Z10">
         <v>0.004980000000000012</v>
@@ -6974,7 +6974,7 @@
         <v>0.1602857577444041</v>
       </c>
       <c r="CI10">
-        <v>0.0297104530140464</v>
+        <v>0.02971045301404551</v>
       </c>
       <c r="CJ10">
         <v>0.1040574110404791</v>
@@ -7070,7 +7070,7 @@
         <v>0.008689060821629395</v>
       </c>
       <c r="DO10">
-        <v>0.03682099347094579</v>
+        <v>0.03682099347136307</v>
       </c>
       <c r="DP10">
         <v>0.005539190924822968</v>
@@ -7180,7 +7180,7 @@
         <v>722.480853908772</v>
       </c>
       <c r="Y11">
-        <v>0.8320987908835648</v>
+        <v>0.8320987908835645</v>
       </c>
       <c r="Z11">
         <v>0.13315</v>
@@ -7575,7 +7575,7 @@
         <v>720.8970590326221</v>
       </c>
       <c r="Y12">
-        <v>0.8337869665741743</v>
+        <v>0.8337869665741744</v>
       </c>
       <c r="Z12">
         <v>0.13716</v>
@@ -7731,7 +7731,7 @@
         <v>3.024503232772713</v>
       </c>
       <c r="BZ12">
-        <v>9.360483030812377</v>
+        <v>9.360483030812379</v>
       </c>
       <c r="CA12">
         <v>6.399321866370697</v>
@@ -11206,22 +11206,22 @@
         <v>0.8327947670174461</v>
       </c>
       <c r="CB2">
-        <v>0.001052544172171813</v>
+        <v>0.001052544172171982</v>
       </c>
       <c r="CC2">
         <v>0.828845653746534</v>
       </c>
       <c r="CD2">
-        <v>0.8337869665741743</v>
+        <v>0.8337869665741744</v>
       </c>
       <c r="CE2">
-        <v>0.004941312827640321</v>
+        <v>0.004941312827640432</v>
       </c>
       <c r="CF2">
-        <v>0.8320987908835648</v>
+        <v>0.8320987908835645</v>
       </c>
       <c r="CG2">
-        <v>0.8337869665741743</v>
+        <v>0.8337869665741744</v>
       </c>
       <c r="CH2">
         <v>0.1348833600527506</v>
@@ -12301,7 +12301,7 @@
         <v>9.358312231290205</v>
       </c>
       <c r="QI2">
-        <v>0.03628653704845419</v>
+        <v>0.03628653704845426</v>
       </c>
       <c r="QJ2">
         <v>9.350619938105142</v>
@@ -12316,7 +12316,7 @@
         <v>9.350619938105142</v>
       </c>
       <c r="QN2">
-        <v>9.360483030812377</v>
+        <v>9.360483030812379</v>
       </c>
       <c r="QO2">
         <v>6.402489075229086</v>
@@ -12490,16 +12490,16 @@
         <v>6.563546330880137</v>
       </c>
       <c r="ST2">
-        <v>0.003096586074344633</v>
+        <v>0.00309658607434458</v>
       </c>
       <c r="SU2">
         <v>6.562661312153709</v>
       </c>
       <c r="SV2">
-        <v>6.592371765167756</v>
+        <v>6.592371765167755</v>
       </c>
       <c r="SW2">
-        <v>0.0297104530140464</v>
+        <v>0.02971045301404551</v>
       </c>
       <c r="SX2">
         <v>6.562661312153709</v>
@@ -13159,19 +13159,19 @@
         <v>0.006009808269503474</v>
       </c>
       <c r="ABI2">
-        <v>0.03175289330707056</v>
+        <v>0.03175289330707255</v>
       </c>
       <c r="ABJ2">
-        <v>0.004554041526840419</v>
+        <v>0.004554041526861643</v>
       </c>
       <c r="ABK2">
         <v>0.03129156569126505</v>
       </c>
       <c r="ABL2">
-        <v>0.06811255916221085</v>
+        <v>0.06811255916262812</v>
       </c>
       <c r="ABM2">
-        <v>0.03682099347094579</v>
+        <v>0.03682099347136307</v>
       </c>
       <c r="ABN2">
         <v>0.03129156569126505</v>
@@ -13201,10 +13201,10 @@
         <v>0.004720488203194162</v>
       </c>
       <c r="ABW2">
-        <v>0.01661526660771082</v>
+        <v>0.01661526660770093</v>
       </c>
       <c r="ABX2">
-        <v>0.0007226766438806266</v>
+        <v>0.0007226766438147333</v>
       </c>
       <c r="ABY2">
         <v>0.01611718196817725</v>
